--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48ACE5A-7F73-46E0-A6E4-E557F7D22B46}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="7776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -36,14 +37,14 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://35.202.73.193/Home</t>
+    <t>http://www.skillswap.pro/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,28 +376,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -407,7 +408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -420,9 +421,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="C2" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48ACE5A-7F73-46E0-A6E4-E557F7D22B46}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146EDEF5-A987-4142-904A-1440656EEE7C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="7776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="7776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="EditProfile" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Password</t>
   </si>
@@ -38,13 +39,34 @@
   </si>
   <si>
     <t>http://www.skillswap.pro/</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Languages</t>
+  </si>
+  <si>
+    <t>Full time</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>Fluent</t>
+  </si>
+  <si>
+    <t>As needed</t>
+  </si>
+  <si>
+    <t>More than $1000 per month</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +86,18 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -96,13 +130,22 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -386,7 +429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -428,4 +471,54 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5639EF-3812-4DFD-A074-C5681281602D}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.44140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146EDEF5-A987-4142-904A-1440656EEE7C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC66C737-1DB9-4282-8EB2-D38318A243ED}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="7776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,13 +53,13 @@
     <t>Chinese</t>
   </si>
   <si>
-    <t>Fluent</t>
-  </si>
-  <si>
     <t>As needed</t>
   </si>
   <si>
     <t>More than $1000 per month</t>
+  </si>
+  <si>
+    <t>Conversational</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,15 +506,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
